--- a/Documentation/Bills_Of_Materials/Peripheral_Board_Rev1_BOM.xlsx
+++ b/Documentation/Bills_Of_Materials/Peripheral_Board_Rev1_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ausectj\git\Peripheral-Board\ADCS Driver\ADCS_DRIVER_REV2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ausectj\git\Peripheral-Board\Documentation\Bills_Of_Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB5FA97-3CE6-4BEA-957B-5EC6449E1D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F8314B-ED0C-4269-B364-0B9EF6FBB346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2320" yWindow="9630" windowWidth="19200" windowHeight="11140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Item Name/Description</t>
   </si>
@@ -100,6 +100,27 @@
   </si>
   <si>
     <t>0.75</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/LMT88DCKR/4090903</t>
+  </si>
+  <si>
+    <t>LMT88DCKR</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Diodes-Incorporated/DMG2302UK-7?qs=nJRy1mI8RR8oxdwFJAgjOg%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMG2302UK-7 </t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/3/abls-1664338.pdf</t>
+  </si>
+  <si>
+    <t>LM339</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/product/LM339</t>
   </si>
 </sst>
 </file>
@@ -552,7 +573,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -659,12 +680,14 @@
       <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E2:E7" si="0">D3*C3*1.07</f>
+        <f t="shared" ref="E3:E7" si="0">D3*C3*1.07</f>
         <v>0</v>
       </c>
       <c r="J3" s="8"/>
@@ -6975,7 +6998,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="9">
-        <f t="shared" ref="E6:E15" si="1">D8*C8*1.07</f>
+        <f t="shared" ref="E8:E15" si="1">D8*C8*1.07</f>
         <v>4.8150000000000004</v>
       </c>
       <c r="F8" s="2"/>
@@ -7004,10 +7027,16 @@
       <c r="AC8"/>
       <c r="AD8"/>
     </row>
-    <row r="9" spans="1:1021 1026:2045 2050:3069 3074:4093 4098:5117 5122:6141 6146:7165 7170:8189 8194:9213 9218:10237 10242:11261 11266:12285 12290:13309 13314:14333 14338:15357 15362:16381" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:1021 1026:2045 2050:3069 3074:4093 4098:5117 5122:6141 6146:7165 7170:8189 8194:9213 9218:10237 10242:11261 11266:12285 12290:13309 13314:14333 14338:15357 15362:16381" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="9">
         <f t="shared" si="1"/>
@@ -7039,10 +7068,16 @@
       <c r="AC9"/>
       <c r="AD9"/>
     </row>
-    <row r="10" spans="1:1021 1026:2045 2050:3069 3074:4093 4098:5117 5122:6141 6146:7165 7170:8189 8194:9213 9218:10237 10242:11261 11266:12285 12290:13309 13314:14333 14338:15357 15362:16381" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:1021 1026:2045 2050:3069 3074:4093 4098:5117 5122:6141 6146:7165 7170:8189 8194:9213 9218:10237 10242:11261 11266:12285 12290:13309 13314:14333 14338:15357 15362:16381" ht="50" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="9">
         <f t="shared" si="1"/>
@@ -7075,9 +7110,15 @@
       <c r="AD10"/>
     </row>
     <row r="11" spans="1:1021 1026:2045 2050:3069 3074:4093 4098:5117 5122:6141 6146:7165 7170:8189 8194:9213 9218:10237 10242:11261 11266:12285 12290:13309 13314:14333 14338:15357 15362:16381" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="9">
         <f t="shared" si="1"/>
@@ -7437,8 +7478,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" location="!documents" xr:uid="{BCC54AA6-1BB7-4854-9A62-206DDAE44754}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
